--- a/results/initial_look/cement_2018_workbook.xlsx
+++ b/results/initial_look/cement_2018_workbook.xlsx
@@ -5770,10 +5770,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>47.99674915252175</v>
+        <v>50.52289384908288</v>
       </c>
       <c r="E2">
-        <v>36.56238166691279</v>
+        <v>38.48671754380801</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5875,7 +5875,7 @@
         <v>0.00483324192</v>
       </c>
       <c r="E8">
-        <v>0.003657588480000002</v>
+        <v>0.0005060208348000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5960,7 +5960,7 @@
         <v>0.4448541988800001</v>
       </c>
       <c r="E13">
-        <v>0.4108009950576</v>
+        <v>0.5037813606974401</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5974,10 +5974,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>7.341423047619402</v>
+        <v>7.341423171840002</v>
       </c>
       <c r="E14">
-        <v>6.94760620413664</v>
+        <v>9.4526805102336</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5991,10 +5991,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>0.3461979408367711</v>
+        <v>0.34619794108902</v>
       </c>
       <c r="E15">
-        <v>0.2785239448740341</v>
+        <v>0.2989562397257442</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6059,10 +6059,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>8.597427369412957</v>
+        <v>8.5974237447444</v>
       </c>
       <c r="E19">
-        <v>8.569576050450911</v>
+        <v>9.524427474456001</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6280,10 +6280,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>19.24760924375357</v>
+        <v>1.654698650108</v>
       </c>
       <c r="E32">
-        <v>20.75159855590927</v>
+        <v>1.783995180034622</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>2.830276800000001E-05</v>
+        <v>2.841162480000001E-05</v>
       </c>
     </row>
   </sheetData>
@@ -9214,10 +9214,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>279.2430497165218</v>
+        <v>281.7691944130829</v>
       </c>
       <c r="E2">
-        <v>260.3960784349128</v>
+        <v>262.320414311808</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9319,7 +9319,7 @@
         <v>0.00483324192</v>
       </c>
       <c r="E8">
-        <v>0.003657588480000002</v>
+        <v>0.0005060208348000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9404,7 +9404,7 @@
         <v>31.47243350688</v>
       </c>
       <c r="E13">
-        <v>30.7190461950576</v>
+        <v>30.81202656069745</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9418,10 +9418,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>41.4989702996194</v>
+        <v>41.49897042384001</v>
       </c>
       <c r="E14">
-        <v>40.30078544013664</v>
+        <v>42.8058597462336</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9435,10 +9435,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>4.283925208836771</v>
+        <v>4.28392520908902</v>
       </c>
       <c r="E15">
-        <v>3.274849232874034</v>
+        <v>3.295281527725745</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9503,10 +9503,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>63.38785996541296</v>
+        <v>63.38785634074441</v>
       </c>
       <c r="E19">
-        <v>64.02399325845091</v>
+        <v>64.97884468245601</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9724,10 +9724,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>129.5830613997536</v>
+        <v>111.990150806108</v>
       </c>
       <c r="E32">
-        <v>130.4120129479093</v>
+        <v>111.4444095720346</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9744,7 +9744,7 @@
         <v>0.1078101</v>
       </c>
       <c r="E33">
-        <v>0.116421342768</v>
+        <v>0.1164214516248</v>
       </c>
     </row>
   </sheetData>
@@ -9788,10 +9788,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>146.9457381605218</v>
+        <v>149.4718828570829</v>
       </c>
       <c r="E2">
-        <v>132.4777409989128</v>
+        <v>134.402076875808</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9893,7 +9893,7 @@
         <v>0.00483324192</v>
       </c>
       <c r="E8">
-        <v>0.003657588480000002</v>
+        <v>0.0005060208348000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9978,7 +9978,7 @@
         <v>6.23846430288</v>
       </c>
       <c r="E13">
-        <v>5.991386715057599</v>
+        <v>6.08436708069744</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9992,10 +9992,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>20.8030317476194</v>
+        <v>20.80303187184</v>
       </c>
       <c r="E14">
-        <v>20.36659328013664</v>
+        <v>22.8716675862336</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10009,10 +10009,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>1.109409712836771</v>
+        <v>1.10940971308902</v>
       </c>
       <c r="E15">
-        <v>0.946318544874034</v>
+        <v>0.9667508397257444</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10077,10 +10077,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>31.38153242141296</v>
+        <v>31.3815287967444</v>
       </c>
       <c r="E19">
-        <v>32.21628750645091</v>
+        <v>33.171138930456</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10298,10 +10298,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>65.62877030375357</v>
+        <v>48.03585971010801</v>
       </c>
       <c r="E32">
-        <v>67.19572908790927</v>
+        <v>48.22812571203463</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10318,7 +10318,7 @@
         <v>0.1078101</v>
       </c>
       <c r="E33">
-        <v>0.116421342768</v>
+        <v>0.1164214516248</v>
       </c>
     </row>
   </sheetData>
@@ -12084,10 +12084,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>6831.276952735999</v>
+        <v>6833.803097432558</v>
       </c>
       <c r="E2">
-        <v>6572.206971103647</v>
+        <v>6574.131306980543</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12189,7 +12189,7 @@
         <v>10.50913762992</v>
       </c>
       <c r="E8">
-        <v>7.62124711248</v>
+        <v>7.6180955448348</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12274,7 +12274,7 @@
         <v>201.5703246684995</v>
       </c>
       <c r="E13">
-        <v>199.7490108346945</v>
+        <v>199.8419912003344</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -12288,10 +12288,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>123.6910909170484</v>
+        <v>123.691091041269</v>
       </c>
       <c r="E14">
-        <v>116.98187253504</v>
+        <v>119.4869468411369</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -12305,10 +12305,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>52.94108231150853</v>
+        <v>52.94108231176077</v>
       </c>
       <c r="E15">
-        <v>46.77301728858485</v>
+        <v>46.79344958343658</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -12373,10 +12373,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>1315.342814247401</v>
+        <v>1315.342810622733</v>
       </c>
       <c r="E19">
-        <v>1507.288467376854</v>
+        <v>1508.243318800859</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -12594,10 +12594,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>1599.571582151487</v>
+        <v>1581.978671557841</v>
       </c>
       <c r="E32">
-        <v>1712.209044076435</v>
+        <v>1693.24144070056</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -12614,7 +12614,7 @@
         <v>110.066346152</v>
       </c>
       <c r="E33">
-        <v>105.719872882768</v>
+        <v>105.7198729916248</v>
       </c>
     </row>
   </sheetData>

--- a/results/initial_look/cement_2018_workbook.xlsx
+++ b/results/initial_look/cement_2018_workbook.xlsx
@@ -6280,10 +6280,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>1.654698650108</v>
+        <v>19.2441452976</v>
       </c>
       <c r="E32">
-        <v>1.783995180034622</v>
+        <v>20.7478639404</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9724,10 +9724,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>111.990150806108</v>
+        <v>129.5795974536</v>
       </c>
       <c r="E32">
-        <v>111.4444095720346</v>
+        <v>130.4082783324</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10298,10 +10298,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>48.03585971010801</v>
+        <v>65.62530635760001</v>
       </c>
       <c r="E32">
-        <v>48.22812571203463</v>
+        <v>67.1919944724</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -12594,10 +12594,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>1581.978671557841</v>
+        <v>1599.568118205333</v>
       </c>
       <c r="E32">
-        <v>1693.24144070056</v>
+        <v>1712.205309460925</v>
       </c>
     </row>
     <row r="33" spans="1:5">

--- a/results/initial_look/cement_2018_workbook.xlsx
+++ b/results/initial_look/cement_2018_workbook.xlsx
@@ -6062,7 +6062,7 @@
         <v>8.5974237447444</v>
       </c>
       <c r="E19">
-        <v>9.524427474456001</v>
+        <v>9.524427474456004</v>
       </c>
     </row>
     <row r="20" spans="1:5">
